--- a/data/trans_dic/IP16A07-Habitat-trans_dic.xlsx
+++ b/data/trans_dic/IP16A07-Habitat-trans_dic.xlsx
@@ -646,7 +646,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>10/50</t>
+          <t>Menos de 2</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -681,7 +681,7 @@
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>1,6%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
@@ -691,7 +691,7 @@
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>1,94%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
@@ -701,7 +701,7 @@
       </c>
       <c r="L4" s="2" t="inlineStr">
         <is>
-          <t>0,81%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="M4" s="2" t="inlineStr">
@@ -711,7 +711,7 @@
       </c>
       <c r="N4" s="2" t="inlineStr">
         <is>
-          <t>0,77%</t>
+          <t>0,0%</t>
         </is>
       </c>
     </row>
@@ -724,62 +724,62 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>0; 3,04</t>
+          <t>0; 26,42</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>0; 3,36</t>
+          <t>0; 44,41</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>0; 3,09</t>
+          <t>0; 36,25</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>0; 2,08</t>
+          <t>0; 23,25</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>0; 2,82</t>
+          <t>0; 14,51</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 8,1</t>
+          <t>0; 23,25</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>0; 2,74</t>
+          <t>0; 23,25</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 9,88</t>
+          <t>0; 15,69</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>0; 1,48</t>
+          <t>0; 9,99</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 3,99</t>
+          <t>0; 17,08</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>0; 1,46</t>
+          <t>0; 15,69</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 3,9</t>
+          <t>0; 9,99</t>
         </is>
       </c>
     </row>
@@ -926,7 +926,7 @@
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>Capitales</t>
+          <t>10/50</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -961,7 +961,7 @@
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>1,6%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
@@ -971,7 +971,7 @@
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>1,94%</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
@@ -981,7 +981,7 @@
       </c>
       <c r="L8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>0,81%</t>
         </is>
       </c>
       <c r="M8" s="2" t="inlineStr">
@@ -991,7 +991,7 @@
       </c>
       <c r="N8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>0,77%</t>
         </is>
       </c>
     </row>
@@ -1004,69 +1004,69 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
+          <t>0; 3,04</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
           <t>0; 3,36</t>
         </is>
       </c>
-      <c r="D9" s="2" t="inlineStr">
-        <is>
-          <t>0; 2,99</t>
-        </is>
-      </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>0; 4,44</t>
+          <t>0; 3,09</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>0; 4,07</t>
+          <t>0; 2,08</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>0; 5,45</t>
+          <t>0; 2,82</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>0; 3,36</t>
+          <t>0,0; 8,1</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>0; 4,25</t>
+          <t>0; 2,74</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>0; 3,98</t>
+          <t>0,0; 9,88</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>0; 2,11</t>
+          <t>0; 1,48</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>0; 1,6</t>
+          <t>0,0; 3,99</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>0; 2,2</t>
+          <t>0; 1,46</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>0; 2,04</t>
+          <t>0,0; 3,9</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>Menos de 2</t>
+          <t>mas de 50</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -1111,7 +1111,7 @@
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>2,43%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
@@ -1131,7 +1131,7 @@
       </c>
       <c r="N10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>1,26%</t>
         </is>
       </c>
     </row>
@@ -1144,69 +1144,69 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>0; 26,42</t>
+          <t>0; 3,48</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>0; 44,41</t>
+          <t>0; 3,36</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>0; 36,25</t>
+          <t>0; 4,25</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>0; 23,25</t>
+          <t>0; 2,55</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>0; 14,51</t>
+          <t>0; 4,44</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>0; 23,25</t>
+          <t>0; 3,54</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>0; 23,25</t>
+          <t>0; 4,07</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>0; 15,69</t>
+          <t>0,0; 8,73</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>0; 9,99</t>
+          <t>0; 1,98</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>0; 17,08</t>
+          <t>0; 1,74</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>0; 15,69</t>
+          <t>0; 2,11</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>0; 9,99</t>
+          <t>0,0; 4,58</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>mas de 50</t>
+          <t>Capitales</t>
         </is>
       </c>
       <c r="B12" s="3" t="inlineStr">
@@ -1251,7 +1251,7 @@
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>2,43%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
@@ -1271,7 +1271,7 @@
       </c>
       <c r="N12" s="2" t="inlineStr">
         <is>
-          <t>1,26%</t>
+          <t>0,0%</t>
         </is>
       </c>
     </row>
@@ -1284,62 +1284,62 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>0; 3,48</t>
+          <t>0; 3,36</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
+          <t>0; 2,99</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>0; 4,44</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>0; 4,07</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>0; 5,45</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
           <t>0; 3,36</t>
         </is>
       </c>
-      <c r="E13" s="2" t="inlineStr">
+      <c r="I13" s="2" t="inlineStr">
         <is>
           <t>0; 4,25</t>
         </is>
       </c>
-      <c r="F13" s="2" t="inlineStr">
-        <is>
-          <t>0; 2,55</t>
-        </is>
-      </c>
-      <c r="G13" s="2" t="inlineStr">
-        <is>
-          <t>0; 4,44</t>
-        </is>
-      </c>
-      <c r="H13" s="2" t="inlineStr">
-        <is>
-          <t>0; 3,54</t>
-        </is>
-      </c>
-      <c r="I13" s="2" t="inlineStr">
-        <is>
-          <t>0; 4,07</t>
-        </is>
-      </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>0,0; 8,73</t>
+          <t>0; 3,98</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>0; 1,98</t>
+          <t>0; 2,11</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>0; 1,74</t>
+          <t>0; 1,6</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>0; 2,11</t>
+          <t>0; 2,2</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>0,0; 4,58</t>
+          <t>0; 2,04</t>
         </is>
       </c>
     </row>

--- a/data/trans_dic/IP16A07-Habitat-trans_dic.xlsx
+++ b/data/trans_dic/IP16A07-Habitat-trans_dic.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N15"/>
+  <dimension ref="A1:N16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -1029,7 +1029,7 @@
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 8,1</t>
+          <t>0,0; 6,79</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
@@ -1039,7 +1039,7 @@
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 9,88</t>
+          <t>0,0; 9,5</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
@@ -1049,7 +1049,7 @@
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 3,99</t>
+          <t>0,0; 4,15</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
@@ -1059,7 +1059,7 @@
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 3,9</t>
+          <t>0,0; 3,94</t>
         </is>
       </c>
     </row>
@@ -1179,7 +1179,7 @@
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>0,0; 8,73</t>
+          <t>0,0; 8,88</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
@@ -1199,7 +1199,7 @@
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>0,0; 4,58</t>
+          <t>0,0; 4,85</t>
         </is>
       </c>
     </row>
@@ -1449,7 +1449,7 @@
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>0,0; 2,21</t>
+          <t>0,0; 2,9</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
@@ -1459,7 +1459,7 @@
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>0,36; 4,1</t>
+          <t>0,37; 4,0</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
@@ -1469,7 +1469,7 @@
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>0,0; 1,13</t>
+          <t>0,0; 0,98</t>
         </is>
       </c>
       <c r="M15" s="2" t="inlineStr">
@@ -1479,7 +1479,14 @@
       </c>
       <c r="N15" s="2" t="inlineStr">
         <is>
-          <t>0,18; 2,0</t>
+          <t>0,17; 1,89</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
         </is>
       </c>
     </row>

--- a/data/trans_dic/IP16A07-Habitat-trans_dic.xlsx
+++ b/data/trans_dic/IP16A07-Habitat-trans_dic.xlsx
@@ -578,7 +578,7 @@
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="F2" s="3" t="inlineStr">
@@ -598,7 +598,7 @@
       </c>
       <c r="I2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="J2" s="3" t="inlineStr">
@@ -618,7 +618,7 @@
       </c>
       <c r="M2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="N2" s="3" t="inlineStr">
@@ -646,7 +646,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>Menos de 2</t>
+          <t>&lt;2.000hab</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -786,7 +786,7 @@
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>2/10</t>
+          <t>2-10.000 hab</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -926,7 +926,7 @@
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>10/50</t>
+          <t>10-50.000 hab</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -1029,7 +1029,7 @@
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 6,79</t>
+          <t>0,0; 9,94</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
@@ -1039,7 +1039,7 @@
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 9,5</t>
+          <t>0,0; 10,02</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
@@ -1049,7 +1049,7 @@
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 4,15</t>
+          <t>0,0; 4,08</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
@@ -1059,14 +1059,14 @@
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 3,94</t>
+          <t>0,0; 4,17</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>mas de 50</t>
+          <t>&gt;50.000hab</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -1179,7 +1179,7 @@
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>0,0; 8,88</t>
+          <t>0,0; 8,53</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
@@ -1199,7 +1199,7 @@
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>0,0; 4,85</t>
+          <t>0,0; 4,27</t>
         </is>
       </c>
     </row>
@@ -1449,7 +1449,7 @@
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>0,0; 2,9</t>
+          <t>0,0; 2,26</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
@@ -1459,7 +1459,7 @@
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>0,37; 4,0</t>
+          <t>0,37; 4,32</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
@@ -1469,7 +1469,7 @@
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>0,0; 0,98</t>
+          <t>0,0; 1,09</t>
         </is>
       </c>
       <c r="M15" s="2" t="inlineStr">
@@ -1479,7 +1479,7 @@
       </c>
       <c r="N15" s="2" t="inlineStr">
         <is>
-          <t>0,17; 1,89</t>
+          <t>0,17; 1,95</t>
         </is>
       </c>
     </row>

--- a/data/trans_dic/IP16A07-Habitat-trans_dic.xlsx
+++ b/data/trans_dic/IP16A07-Habitat-trans_dic.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal dicotómica" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N16"/>
+  <dimension ref="A1:N14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -540,7 +540,7 @@
       <c r="B1" s="2" t="n"/>
       <c r="C1" s="3" t="inlineStr">
         <is>
-          <t>Hombre</t>
+          <t>Niña</t>
         </is>
       </c>
       <c r="D1" s="3" t="n"/>
@@ -548,7 +548,7 @@
       <c r="F1" s="3" t="n"/>
       <c r="G1" s="3" t="inlineStr">
         <is>
-          <t>Mujer</t>
+          <t>Niño</t>
         </is>
       </c>
       <c r="H1" s="3" t="n"/>
@@ -646,7 +646,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>&lt;2.000hab</t>
+          <t>&lt;10.000 hab</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -724,69 +724,69 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>0; 26,42</t>
+          <t>0; 3,98</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>0; 44,41</t>
+          <t>0; 4,55</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>0; 36,25</t>
+          <t>0; 5,61</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>0; 23,25</t>
+          <t>0; 4,25</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>0; 14,51</t>
+          <t>0; 4,34</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>0; 23,25</t>
+          <t>0; 3,98</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>0; 23,25</t>
+          <t>0; 5,78</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>0; 15,69</t>
+          <t>0; 4,78</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>0; 9,99</t>
+          <t>0; 2,11</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>0; 17,08</t>
+          <t>0; 2,15</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>0; 15,69</t>
+          <t>0; 2,9</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>0; 9,99</t>
+          <t>0; 2,28</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>2-10.000 hab</t>
+          <t>10-50.000 hab</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -801,7 +801,7 @@
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>1,6%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
@@ -811,7 +811,7 @@
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>1,61%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
@@ -841,7 +841,7 @@
       </c>
       <c r="L6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>0,81%</t>
         </is>
       </c>
       <c r="M6" s="2" t="inlineStr">
@@ -851,7 +851,7 @@
       </c>
       <c r="N6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>0,66%</t>
         </is>
       </c>
     </row>
@@ -864,69 +864,69 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>0; 5,03</t>
+          <t>0; 2,82</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>0; 4,25</t>
+          <t>0,0; 8,1</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>0; 6,57</t>
+          <t>0; 2,74</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>0; 5,78</t>
+          <t>0,0; 8,72</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>0; 5,3</t>
+          <t>0; 3,04</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>0; 5,45</t>
+          <t>0; 3,36</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>0; 7,06</t>
+          <t>0; 3,09</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>0; 5,61</t>
+          <t>0; 2,08</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>0; 2,62</t>
+          <t>0; 1,48</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>0; 2,42</t>
+          <t>0,0; 3,99</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>0; 3,48</t>
+          <t>0; 1,46</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>0; 2,9</t>
+          <t>0,0; 3,16</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>10-50.000 hab</t>
+          <t>&gt;50.000 hab</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -951,7 +951,7 @@
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>1,82%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
@@ -961,7 +961,7 @@
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>1,6%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
@@ -971,7 +971,7 @@
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>1,94%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
@@ -981,7 +981,7 @@
       </c>
       <c r="L8" s="2" t="inlineStr">
         <is>
-          <t>0,81%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="M8" s="2" t="inlineStr">
@@ -991,7 +991,7 @@
       </c>
       <c r="N8" s="2" t="inlineStr">
         <is>
-          <t>0,77%</t>
+          <t>1,05%</t>
         </is>
       </c>
     </row>
@@ -1004,69 +1004,69 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>0; 3,04</t>
+          <t>0; 4,44</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
+          <t>0; 3,54</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>0; 4,07</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
+          <t>0,0; 6,54</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>0; 3,48</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
           <t>0; 3,36</t>
         </is>
       </c>
-      <c r="E9" s="2" t="inlineStr">
-        <is>
-          <t>0; 3,09</t>
-        </is>
-      </c>
-      <c r="F9" s="2" t="inlineStr">
-        <is>
-          <t>0; 2,08</t>
-        </is>
-      </c>
-      <c r="G9" s="2" t="inlineStr">
-        <is>
-          <t>0; 2,82</t>
-        </is>
-      </c>
-      <c r="H9" s="2" t="inlineStr">
-        <is>
-          <t>0,0; 9,94</t>
-        </is>
-      </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>0; 2,74</t>
+          <t>0; 4,25</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 10,02</t>
+          <t>0; 2,55</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>0; 1,48</t>
+          <t>0; 1,98</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 4,08</t>
+          <t>0; 1,74</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>0; 1,46</t>
+          <t>0; 2,11</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 4,17</t>
+          <t>0,0; 4,23</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>&gt;50.000hab</t>
+          <t>Capitales</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -1111,7 +1111,7 @@
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>2,43%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
@@ -1131,7 +1131,7 @@
       </c>
       <c r="N10" s="2" t="inlineStr">
         <is>
-          <t>1,26%</t>
+          <t>0,0%</t>
         </is>
       </c>
     </row>
@@ -1144,7 +1144,7 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>0; 3,48</t>
+          <t>0; 5,45</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
@@ -1159,54 +1159,54 @@
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>0; 2,55</t>
+          <t>0; 3,98</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
+          <t>0; 3,36</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>0; 2,99</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
           <t>0; 4,44</t>
         </is>
       </c>
-      <c r="H11" s="2" t="inlineStr">
-        <is>
-          <t>0; 3,54</t>
-        </is>
-      </c>
-      <c r="I11" s="2" t="inlineStr">
+      <c r="J11" s="2" t="inlineStr">
         <is>
           <t>0; 4,07</t>
         </is>
       </c>
-      <c r="J11" s="2" t="inlineStr">
-        <is>
-          <t>0,0; 8,53</t>
-        </is>
-      </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>0; 1,98</t>
+          <t>0; 2,11</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>0; 1,74</t>
+          <t>0; 1,6</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>0; 2,11</t>
+          <t>0; 2,2</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>0,0; 4,27</t>
+          <t>0; 2,04</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>Capitales</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="B12" s="3" t="inlineStr">
@@ -1221,7 +1221,7 @@
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>0,45%</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
@@ -1231,7 +1231,7 @@
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>1,19%</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
@@ -1261,7 +1261,7 @@
       </c>
       <c r="L12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>0,21%</t>
         </is>
       </c>
       <c r="M12" s="2" t="inlineStr">
@@ -1271,7 +1271,7 @@
       </c>
       <c r="N12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>0,59%</t>
         </is>
       </c>
     </row>
@@ -1284,214 +1284,74 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>0; 3,36</t>
+          <t>0; 1,0</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>0; 2,99</t>
+          <t>0,0; 2,21</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>0; 4,44</t>
+          <t>0; 0,99</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>0; 4,07</t>
+          <t>0,3; 3,48</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>0; 5,45</t>
+          <t>0; 0,89</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>0; 3,36</t>
+          <t>0; 0,86</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>0; 4,25</t>
+          <t>0; 1,07</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>0; 3,98</t>
+          <t>0; 0,76</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>0; 2,11</t>
+          <t>0; 0,47</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>0; 1,6</t>
+          <t>0,0; 1,13</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>0; 2,2</t>
+          <t>0; 0,52</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>0; 2,04</t>
+          <t>0,17; 1,8</t>
         </is>
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="1" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
-      <c r="B14" s="3" t="inlineStr">
-        <is>
-          <t>Estimación</t>
-        </is>
-      </c>
-      <c r="C14" s="2" t="inlineStr">
-        <is>
-          <t>0,0%</t>
-        </is>
-      </c>
-      <c r="D14" s="2" t="inlineStr">
-        <is>
-          <t>0,0%</t>
-        </is>
-      </c>
-      <c r="E14" s="2" t="inlineStr">
-        <is>
-          <t>0,0%</t>
-        </is>
-      </c>
-      <c r="F14" s="2" t="inlineStr">
-        <is>
-          <t>0,0%</t>
-        </is>
-      </c>
-      <c r="G14" s="2" t="inlineStr">
-        <is>
-          <t>0,0%</t>
-        </is>
-      </c>
-      <c r="H14" s="2" t="inlineStr">
-        <is>
-          <t>0,45%</t>
-        </is>
-      </c>
-      <c r="I14" s="2" t="inlineStr">
-        <is>
-          <t>0,0%</t>
-        </is>
-      </c>
-      <c r="J14" s="2" t="inlineStr">
-        <is>
-          <t>1,42%</t>
-        </is>
-      </c>
-      <c r="K14" s="2" t="inlineStr">
-        <is>
-          <t>0,0%</t>
-        </is>
-      </c>
-      <c r="L14" s="2" t="inlineStr">
-        <is>
-          <t>0,21%</t>
-        </is>
-      </c>
-      <c r="M14" s="2" t="inlineStr">
-        <is>
-          <t>0,0%</t>
-        </is>
-      </c>
-      <c r="N14" s="2" t="inlineStr">
-        <is>
-          <t>0,67%</t>
-        </is>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="1" t="n"/>
-      <c r="B15" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C15" s="2" t="inlineStr">
-        <is>
-          <t>0; 0,89</t>
-        </is>
-      </c>
-      <c r="D15" s="2" t="inlineStr">
-        <is>
-          <t>0; 0,86</t>
-        </is>
-      </c>
-      <c r="E15" s="2" t="inlineStr">
-        <is>
-          <t>0; 1,07</t>
-        </is>
-      </c>
-      <c r="F15" s="2" t="inlineStr">
-        <is>
-          <t>0; 0,76</t>
-        </is>
-      </c>
-      <c r="G15" s="2" t="inlineStr">
-        <is>
-          <t>0; 1,0</t>
-        </is>
-      </c>
-      <c r="H15" s="2" t="inlineStr">
-        <is>
-          <t>0,0; 2,26</t>
-        </is>
-      </c>
-      <c r="I15" s="2" t="inlineStr">
-        <is>
-          <t>0; 0,99</t>
-        </is>
-      </c>
-      <c r="J15" s="2" t="inlineStr">
-        <is>
-          <t>0,37; 4,32</t>
-        </is>
-      </c>
-      <c r="K15" s="2" t="inlineStr">
-        <is>
-          <t>0; 0,47</t>
-        </is>
-      </c>
-      <c r="L15" s="2" t="inlineStr">
-        <is>
-          <t>0,0; 1,09</t>
-        </is>
-      </c>
-      <c r="M15" s="2" t="inlineStr">
-        <is>
-          <t>0; 0,52</t>
-        </is>
-      </c>
-      <c r="N15" s="2" t="inlineStr">
-        <is>
-          <t>0,17; 1,95</t>
-        </is>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
+      <c r="A14" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="9">
     <mergeCell ref="A8:A9"/>
     <mergeCell ref="A12:A13"/>
     <mergeCell ref="A4:A5"/>
@@ -1501,7 +1361,6 @@
     <mergeCell ref="G1:J1"/>
     <mergeCell ref="A6:A7"/>
     <mergeCell ref="K1:N1"/>
-    <mergeCell ref="A14:A15"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
